--- a/Horas extras  DEL 09 DE OCT HASTA EL 24 OCT.xlsx
+++ b/Horas extras  DEL 09 DE OCT HASTA EL 24 OCT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Horas Extras" sheetId="1" r:id="rId1"/>
@@ -1662,24 +1662,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1702,6 +1684,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2043,8 +2043,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5950,6 +5950,7 @@
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5957,8 +5958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5971,46 +5972,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="53"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="64"/>
@@ -6036,10 +6037,10 @@
       <c r="F7" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="G7" s="57"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="56" t="s">
         <v>190</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -6071,10 +6072,10 @@
       <c r="E9" s="35">
         <v>1147935130</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="50">
         <v>42286</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="52" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6112,7 +6113,7 @@
       <c r="F11" s="27">
         <v>42293</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
@@ -6130,7 +6131,7 @@
       <c r="F12" s="27">
         <v>42296</v>
       </c>
-      <c r="G12" s="59"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
@@ -6148,7 +6149,7 @@
       <c r="F13" s="27">
         <v>42286</v>
       </c>
-      <c r="G13" s="59"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="38" t="s">
@@ -6166,7 +6167,7 @@
       <c r="F14" s="27">
         <v>42277</v>
       </c>
-      <c r="G14" s="59"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
@@ -6184,7 +6185,7 @@
       <c r="F15" s="27">
         <v>42271</v>
       </c>
-      <c r="G15" s="59"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
@@ -6202,7 +6203,7 @@
       <c r="F16" s="27">
         <v>42263</v>
       </c>
-      <c r="G16" s="59"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="38" t="s">
@@ -6220,7 +6221,7 @@
       <c r="F17" s="27">
         <v>42268</v>
       </c>
-      <c r="G17" s="59"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
@@ -6238,7 +6239,7 @@
       <c r="F18" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="G18" s="59"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
@@ -6256,7 +6257,7 @@
       <c r="F19" s="27">
         <v>42304</v>
       </c>
-      <c r="G19" s="59"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
@@ -6274,7 +6275,7 @@
       <c r="F20" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="53" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6294,7 +6295,7 @@
       <c r="F21" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="53" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6314,7 +6315,7 @@
       <c r="F22" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="53" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6334,7 +6335,7 @@
       <c r="F23" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="53" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6354,7 +6355,7 @@
       <c r="F24" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="G24" s="59"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
@@ -6372,7 +6373,7 @@
       <c r="F25" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="G25" s="59"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
@@ -6390,7 +6391,7 @@
       <c r="F26" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="G26" s="59"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
@@ -6408,7 +6409,7 @@
       <c r="F27" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="G27" s="59"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="44" t="s">
@@ -6424,7 +6425,7 @@
         <v>1039693114</v>
       </c>
       <c r="F28" s="28"/>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="53" t="s">
         <v>350</v>
       </c>
     </row>
@@ -6444,7 +6445,7 @@
       <c r="F29" s="30">
         <v>42296</v>
       </c>
-      <c r="G29" s="60"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="45" t="s">
@@ -6462,7 +6463,7 @@
       <c r="F30" s="30">
         <v>42296</v>
       </c>
-      <c r="G30" s="60"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="45" t="s">
@@ -6480,7 +6481,7 @@
       <c r="F31" s="30">
         <v>42296</v>
       </c>
-      <c r="G31" s="60"/>
+      <c r="G31" s="54"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
@@ -6498,7 +6499,7 @@
       <c r="F32" s="30">
         <v>42296</v>
       </c>
-      <c r="G32" s="60"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="45" t="s">
@@ -6516,7 +6517,7 @@
       <c r="F33" s="30">
         <v>42296</v>
       </c>
-      <c r="G33" s="60"/>
+      <c r="G33" s="54"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="45" t="s">
@@ -6534,7 +6535,7 @@
       <c r="F34" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="G34" s="60"/>
+      <c r="G34" s="54"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="45" t="s">
@@ -6552,7 +6553,7 @@
       <c r="F35" s="30">
         <v>42297</v>
       </c>
-      <c r="G35" s="60"/>
+      <c r="G35" s="54"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="45" t="s">
@@ -6570,13 +6571,13 @@
       <c r="F36" s="30">
         <v>42297</v>
       </c>
-      <c r="G36" s="60"/>
+      <c r="G36" s="54"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="57" t="s">
         <v>364</v>
       </c>
       <c r="D37" s="47" t="s">
@@ -6588,7 +6589,7 @@
       <c r="F37" s="49">
         <v>42297</v>
       </c>
-      <c r="G37" s="61"/>
+      <c r="G37" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
